--- a/文档/数据库/tb_user.xlsx
+++ b/文档/数据库/tb_user.xlsx
@@ -10,6 +10,50 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>img_src</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>salt_value</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,8 +95,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/文档/数据库/tb_user.xlsx
+++ b/文档/数据库/tb_user.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>user_id</t>
   </si>
@@ -52,12 +52,39 @@
   </si>
   <si>
     <t>operator</t>
+  </si>
+  <si>
+    <t>5fa40f0df100754f9e389d2d</t>
+  </si>
+  <si>
+    <t>1165472536@qq.com</t>
+  </si>
+  <si>
+    <t>1165472536</t>
+  </si>
+  <si>
+    <t>曾帅管理员</t>
+  </si>
+  <si>
+    <t>D:\123\246</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/M/d h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -72,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -80,12 +107,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -139,6 +170,47 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44140.639270833337</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44140.639270833337</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>